--- a/biology/Zoologie/Hottentotta_franzwerneri/Hottentotta_franzwerneri.xlsx
+++ b/biology/Zoologie/Hottentotta_franzwerneri/Hottentotta_franzwerneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hottentotta franzwerneri ou Jayakari est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Algérie et au Maroc[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Algérie et au Maroc.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hottentotta gentili mesure de 70 à 110 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hottentotta gentili mesure de 70 à 110 mm.
 Le telson (dernier segment de la queue) possède un aiguillon aigu et canulé à deux orifices  reliés chacun à une glande venimeuse.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son venin est neurotoxique et mortel pour l'homme. Les effets d'une envenimation vont d'une simple douleur vive à des problèmes cardio-vasculaires ou un œdème pulmonaire voire un décès. En cas de piqûre, il faut bien sûr aller immédiatement dans un lieu médicalisé[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son venin est neurotoxique et mortel pour l'homme. Les effets d'une envenimation vont d'une simple douleur vive à des problèmes cardio-vasculaires ou un œdème pulmonaire voire un décès. En cas de piqûre, il faut bien sûr aller immédiatement dans un lieu médicalisé.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus franzwerneri par Birula en 1914. Elle est placée dans le genre Buthotus par Vachon en 1949[4] puis dans le genre Hottentotta en 1985[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus franzwerneri par Birula en 1914. Elle est placée dans le genre Buthotus par Vachon en 1949 puis dans le genre Hottentotta en 1985.
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Franz Werner[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Franz Werner.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Birula, 1914 : « Ergebnisse einer von Prof. Franz Werner im Sommer 1910 mit Unterstützung aus dem Legate Wedl ausgeführten zoologischen Forschungsreise nach Algerien. VI. Skorpione und Solifugen. » Sitzungsberichte der Kaiserlich-Königlichen Akademie der Wissenschaften, Wien, vol. 123, no 1, p. 633–668 (texte intégral).</t>
         </is>
